--- a/biology/Zoologie/Barbeau_(poisson)/Barbeau_(poisson).xlsx
+++ b/biology/Zoologie/Barbeau_(poisson)/Barbeau_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Barbeau est un nom vernaculaire ambigu, qui désigne différentes espèces de poissons de la famille des Cyprinidés.
 </t>
@@ -511,10 +523,12 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Entre confusions, habitudes locales et traditions régionales, de nombreux noms lui[Qui ?] sont attribués : barbeau fluviatile, barbel, barbet, barbillon, berbelet, barboti, barbu, barbelat, coquillon, écalot, drenek[1].
-Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[2] en français : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Entre confusions, habitudes locales et traditions régionales, de nombreux noms lui[Qui ?] sont attribués : barbeau fluviatile, barbel, barbet, barbillon, berbelet, barboti, barbu, barbelat, coquillon, écalot, drenek.
+Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français : 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
 En gras, les espèces les plus connues des francophones.
 Barbeau argenté de Thaïlande - Barbonymus gonionotus
@@ -552,11 +566,13 @@
           <t>Influence culturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hypothèse évoque la possibilité que le barbeau ait donné son nom à la ville lorraine de Bar-le-Duc, s'appuyant sur le fait que les armoiries du duché représentent deux barbeaux :
 "Parti, en 1 d'azur semé de croisettes recroisetées au pied fiché d'or aux deux bars adossés d'argent brochant sur le tout, et en 2 aussi d'argent aux trois pensées tigées et feuillées au naturel."
-Dans les jeux vidéos, le barbeau a donné son nom à un pokémon poisson, Barpau[3]. Le nom est en effet un jeu de mots entre « barbeau » et « crapaud », car le pokémon, de base très laid, évolue en un magnifique poisson, comme le crapaud qui, selon la légende, se transforme en prince charmant.
+Dans les jeux vidéos, le barbeau a donné son nom à un pokémon poisson, Barpau. Le nom est en effet un jeu de mots entre « barbeau » et « crapaud », car le pokémon, de base très laid, évolue en un magnifique poisson, comme le crapaud qui, selon la légende, se transforme en prince charmant.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain français, le 21e jour du mois de Prairial est officiellement dit jour du Barbeau[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain français, le 21e jour du mois de Prairial est officiellement dit jour du Barbeau.
 </t>
         </is>
       </c>
